--- a/LEadPkg.xlsx
+++ b/LEadPkg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProjectLightning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9A078C-1133-42E9-8DFE-5D157E05C1BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7684A9C0-02DA-4D5D-BAF2-FE201E15A9D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5115" yWindow="510" windowWidth="15375" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
